--- a/biology/Zoologie/Robert_du_Buysson/Robert_du_Buysson.xlsx
+++ b/biology/Zoologie/Robert_du_Buysson/Robert_du_Buysson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert François du Buysson est un naturaliste français né le 6 mai 1861 à Broût-Vernet (Allier) et mort à Saint-Rémy-la-Varenne (Maine-et-Loire) le 16 mars 1946.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du botaniste François du Buysson et le frère de l'entomologiste Henri du Buysson.
 Ayant développé très jeune un goût pour les herbiers et un sens aigu de l'observation, Robert du Buysson se mit à étudier les mousses de sa région natale élargissant rapidement son champ d'étude aux lichens et aux cryptogames vasculaires. De 1888 à 1893, il publia d'ailleurs un inventaire des cryptogames vasculaires d'Europe dans la Revue scientifique du Bourbonnais et du Centre de la France. Dans le domaine de la bryologie, le nom de Robert du Buysson reste attaché à deux espèces : Orthorichum berthoumieui, baptisée en l'honneur de l'abbé Berthoumieu avec lequel il étudia les mousses des environs de Saint-Pourçain (Allier), et Barbula buyssoni.
